--- a/doc/truth-table.xlsx
+++ b/doc/truth-table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PipelineCPU\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA3AF5-53B5-4994-A3CC-F31AB4608381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351CC6A-4224-4B06-A318-10F88CDB779E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1215" windowWidth="13980" windowHeight="14985" xr2:uid="{916343F6-8B66-43CC-B58B-80C742A562DC}"/>
+    <workbookView xWindow="3120" yWindow="1212" windowWidth="13980" windowHeight="14988" xr2:uid="{916343F6-8B66-43CC-B58B-80C742A562DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="130">
   <si>
     <t>add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,186 @@
   </si>
   <si>
     <t>bne_br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +604,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,20 +923,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DDC9C-5083-4640-915A-C7C0E11715ED}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.06640625" style="1"/>
+    <col min="1" max="6" width="9.109375" style="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="8" max="10" width="9.109375" style="1"/>
+    <col min="11" max="16" width="9.109375" style="3"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -784,8 +969,26 @@
       <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +1019,17 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,8 +1060,17 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -880,8 +1101,11 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -912,8 +1136,11 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -944,8 +1171,17 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -976,8 +1212,17 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,8 +1253,17 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,8 +1294,20 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1338,20 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,8 +1382,20 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1136,8 +1426,20 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,8 +1470,17 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1511,11 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1232,8 +1546,17 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1264,8 +1587,11 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1296,8 +1622,17 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1328,8 +1663,11 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1360,8 +1698,17 @@
       <c r="J19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1392,8 +1739,17 @@
       <c r="J20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1424,8 +1780,11 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1456,8 +1815,17 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -1488,8 +1856,11 @@
       <c r="J23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1520,8 +1891,17 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1552,8 +1932,17 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1584,8 +1973,17 @@
       <c r="J26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1616,8 +2014,17 @@
       <c r="J27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1648,8 +2055,17 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1680,8 +2096,17 @@
       <c r="J29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1712,8 +2137,11 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1744,8 +2172,11 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1776,8 +2207,11 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1808,8 +2242,11 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1840,8 +2277,11 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1872,8 +2312,14 @@
       <c r="J35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1904,8 +2350,23 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1936,8 +2397,23 @@
       <c r="J37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1968,8 +2444,11 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -2000,8 +2479,11 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -2032,8 +2514,11 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -2064,8 +2549,14 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -2095,6 +2586,12 @@
       </c>
       <c r="J42" s="1">
         <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/doc/truth-table.xlsx
+++ b/doc/truth-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PipelineCPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6FA556-2C5D-4F49-937C-87281A48D7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A07DEE-55C0-498E-B3DA-C5425B7D69A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1215" windowWidth="13980" windowHeight="14985" xr2:uid="{916343F6-8B66-43CC-B58B-80C742A562DC}"/>
   </bookViews>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>regwa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,6 +520,10 @@
   </si>
   <si>
     <t>const16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,9 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DDC9C-5083-4640-915A-C7C0E11715ED}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -922,40 +920,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -963,37 +961,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1001,37 +999,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1039,69 +1037,69 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1109,37 +1107,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1147,37 +1145,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -1185,37 +1183,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1223,37 +1221,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
@@ -1261,37 +1259,37 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1299,37 +1297,37 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1337,37 +1335,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -1375,37 +1373,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -1413,34 +1411,34 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -1448,37 +1446,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1486,34 +1484,34 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -1521,37 +1519,37 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -1559,34 +1557,34 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -1594,37 +1592,37 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -1632,37 +1630,37 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -1670,34 +1668,34 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -1705,72 +1703,72 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -1778,37 +1776,37 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -1816,37 +1814,37 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -1854,37 +1852,37 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -1892,37 +1890,37 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -1930,37 +1928,37 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -1968,37 +1966,37 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -2006,34 +2004,34 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -2041,34 +2039,34 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -2076,34 +2074,34 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -2111,34 +2109,34 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -2146,34 +2144,34 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -2181,34 +2179,34 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -2216,37 +2214,37 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
@@ -2254,37 +2252,37 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
@@ -2292,34 +2290,34 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
@@ -2327,34 +2325,34 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
@@ -2362,69 +2360,69 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
@@ -2432,34 +2430,34 @@
         <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/doc/truth-table.xlsx
+++ b/doc/truth-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PipelineCPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A07DEE-55C0-498E-B3DA-C5425B7D69A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F606F6A-CEE3-4397-9B2C-3F2F33FF289C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1215" windowWidth="13980" windowHeight="14985" xr2:uid="{916343F6-8B66-43CC-B58B-80C742A562DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="136">
   <si>
     <t>add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,46 @@
   </si>
   <si>
     <t>inst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal_br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr_br</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +630,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,9 +948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DDC9C-5083-4640-915A-C7C0E11715ED}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2321,84 +2366,87 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>110</v>
+      <c r="A39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>112</v>
+      <c r="A40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>48</v>
@@ -2427,36 +2475,106 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>121</v>
       </c>
     </row>

--- a/doc/truth-table.xlsx
+++ b/doc/truth-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PipelineCPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90513A2-7655-47E8-B3EE-643B3BE88E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A61D0C-EAB2-4ECF-9417-45723E6DE0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1215" windowWidth="13980" windowHeight="14985" xr2:uid="{916343F6-8B66-43CC-B58B-80C742A562DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
   <si>
     <t>add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,38 @@
   </si>
   <si>
     <t>regimm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DDC9C-5083-4640-915A-C7C0E11715ED}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1874,45 +1906,45 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>109</v>
@@ -1927,27 +1959,27 @@
         <v>46</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>109</v>
@@ -1962,27 +1994,27 @@
         <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>109</v>
@@ -1997,77 +2029,74 @@
         <v>46</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>107</v>
@@ -2076,10 +2105,10 @@
         <v>43</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>108</v>
@@ -2087,13 +2116,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>109</v>
@@ -2117,94 +2146,94 @@
         <v>41</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>115</v>
@@ -2228,53 +2257,56 @@
         <v>115</v>
       </c>
       <c r="M35" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>43</v>
@@ -2303,13 +2335,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>43</v>
@@ -2338,13 +2370,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>43</v>
@@ -2373,25 +2405,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>125</v>
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>107</v>
@@ -2411,16 +2440,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>129</v>
@@ -2444,6 +2473,44 @@
         <v>43</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>107</v>
       </c>
     </row>

--- a/doc/truth-table.xlsx
+++ b/doc/truth-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PipelineCPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A61D0C-EAB2-4ECF-9417-45723E6DE0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8A85A4-A0E1-4D60-8B20-5C1E1B919697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1215" windowWidth="13980" windowHeight="14985" xr2:uid="{916343F6-8B66-43CC-B58B-80C742A562DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="142">
   <si>
     <t>add</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,18 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>half</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,6 +560,34 @@
   </si>
   <si>
     <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbu_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_me</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DDC9C-5083-4640-915A-C7C0E11715ED}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -977,16 +989,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -1021,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>44</v>
@@ -1039,7 +1051,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>43</v>
@@ -1051,7 +1063,7 @@
         <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -1059,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>44</v>
@@ -1077,7 +1089,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>43</v>
@@ -1089,7 +1101,7 @@
         <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -1097,10 +1109,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>44</v>
@@ -1112,7 +1124,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>43</v>
@@ -1124,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -1132,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>44</v>
@@ -1147,7 +1159,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>43</v>
@@ -1159,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -1167,13 +1179,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>44</v>
@@ -1185,7 +1197,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
@@ -1197,7 +1209,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1205,13 +1217,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>44</v>
@@ -1223,7 +1235,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
@@ -1235,7 +1247,7 @@
         <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -1243,13 +1255,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>44</v>
@@ -1261,7 +1273,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
@@ -1273,7 +1285,7 @@
         <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1281,10 +1293,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>44</v>
@@ -1296,7 +1308,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
@@ -1308,7 +1320,7 @@
         <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
@@ -1316,13 +1328,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>44</v>
@@ -1334,7 +1346,7 @@
         <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>43</v>
@@ -1346,7 +1358,7 @@
         <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
@@ -1354,10 +1366,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
@@ -1369,7 +1381,7 @@
         <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>43</v>
@@ -1381,7 +1393,7 @@
         <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
@@ -1389,13 +1401,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
@@ -1407,7 +1419,7 @@
         <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>43</v>
@@ -1419,7 +1431,7 @@
         <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -1427,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>44</v>
@@ -1442,7 +1454,7 @@
         <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>43</v>
@@ -1454,7 +1466,7 @@
         <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1462,13 +1474,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>44</v>
@@ -1480,7 +1492,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
@@ -1492,7 +1504,7 @@
         <v>42</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1500,13 +1512,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>44</v>
@@ -1518,7 +1530,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
@@ -1530,7 +1542,7 @@
         <v>42</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1538,10 +1550,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>44</v>
@@ -1553,7 +1565,7 @@
         <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
@@ -1565,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1573,13 +1585,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>44</v>
@@ -1591,7 +1603,7 @@
         <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
@@ -1603,7 +1615,7 @@
         <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1611,10 +1623,10 @@
         <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>44</v>
@@ -1626,7 +1638,7 @@
         <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
@@ -1638,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -1646,13 +1658,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>58</v>
@@ -1664,7 +1676,7 @@
         <v>59</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
@@ -1676,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -1684,13 +1696,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>58</v>
@@ -1702,7 +1714,7 @@
         <v>60</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>43</v>
@@ -1714,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -1722,13 +1734,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>58</v>
@@ -1740,7 +1752,7 @@
         <v>61</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>43</v>
@@ -1752,7 +1764,7 @@
         <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1760,13 +1772,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>44</v>
@@ -1778,7 +1790,7 @@
         <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>43</v>
@@ -1790,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1798,13 +1810,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>44</v>
@@ -1816,7 +1828,7 @@
         <v>60</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>43</v>
@@ -1828,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1836,13 +1848,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>44</v>
@@ -1854,10 +1863,10 @@
         <v>46</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>48</v>
@@ -1866,7 +1875,7 @@
         <v>62</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1874,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>44</v>
@@ -1889,10 +1898,10 @@
         <v>46</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>43</v>
@@ -1901,42 +1910,42 @@
         <v>43</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1944,10 +1953,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>44</v>
@@ -1959,10 +1968,10 @@
         <v>46</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>48</v>
@@ -1971,7 +1980,7 @@
         <v>62</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1979,10 +1988,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>44</v>
@@ -1994,10 +2003,10 @@
         <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>43</v>
@@ -2006,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -2014,10 +2023,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>44</v>
@@ -2029,10 +2038,10 @@
         <v>46</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>48</v>
@@ -2041,7 +2050,7 @@
         <v>62</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -2049,10 +2058,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>44</v>
@@ -2064,10 +2073,10 @@
         <v>46</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>43</v>
@@ -2076,7 +2085,7 @@
         <v>43</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -2084,13 +2093,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>47</v>
@@ -2099,7 +2108,7 @@
         <v>59</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>43</v>
@@ -2111,7 +2120,7 @@
         <v>42</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -2119,13 +2128,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
@@ -2137,7 +2146,7 @@
         <v>43</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>43</v>
@@ -2146,10 +2155,10 @@
         <v>41</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2157,13 +2166,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>43</v>
@@ -2175,7 +2184,7 @@
         <v>43</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>43</v>
@@ -2184,10 +2193,10 @@
         <v>41</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2195,10 +2204,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
@@ -2210,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>43</v>
@@ -2222,80 +2231,80 @@
         <v>43</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="J35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
@@ -2303,10 +2312,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>43</v>
@@ -2318,7 +2327,7 @@
         <v>43</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>43</v>
@@ -2330,7 +2339,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2338,10 +2347,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>43</v>
@@ -2353,7 +2362,7 @@
         <v>43</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>43</v>
@@ -2365,18 +2374,18 @@
         <v>43</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>43</v>
@@ -2388,7 +2397,7 @@
         <v>43</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>43</v>
@@ -2400,7 +2409,7 @@
         <v>43</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -2408,10 +2417,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>43</v>
@@ -2423,7 +2432,7 @@
         <v>43</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>43</v>
@@ -2435,33 +2444,33 @@
         <v>43</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="F41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>43</v>
@@ -2473,33 +2482,33 @@
         <v>43</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>43</v>
@@ -2511,7 +2520,7 @@
         <v>43</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
